--- a/test-plan.xlsx
+++ b/test-plan.xlsx
@@ -234,7 +234,7 @@
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +271,27 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -293,8 +314,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,68 +360,80 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,137 +450,92 @@
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <strike val="1"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill/>
-      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -566,7 +554,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -575,7 +563,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFB9CDE5"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -602,75 +590,75 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF111111"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF1C1C1C"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet2!$A$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" autoLine="false" print="true" fmlaLink="Sheet1!$A$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,20 +667,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>104760</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>162000</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1001" name="Check Box 1" descr="" hidden="0"/>
+            <xdr:cNvPr id="1001" name="Check Box 1" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -710,7 +698,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -723,20 +711,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>56880</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1002" name="Check Box 58" descr="" hidden="0"/>
+            <xdr:cNvPr id="1002" name="Check Box 58" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -754,7 +742,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -767,20 +755,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>85320</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>142920</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1003" name="Check Box 59" descr="" hidden="0"/>
+            <xdr:cNvPr id="1003" name="Check Box 59" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -798,7 +786,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -811,20 +799,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>171360</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>38160</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1004" name="Check Box 60" descr="" hidden="0"/>
+            <xdr:cNvPr id="1004" name="Check Box 60" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -842,7 +830,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -855,20 +843,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>66600</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>123840</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1005" name="Check Box 61" descr="" hidden="0"/>
+            <xdr:cNvPr id="1005" name="Check Box 61" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -886,7 +874,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -899,20 +887,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>152280</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>18720</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1006" name="Check Box 62" descr="" hidden="0"/>
+            <xdr:cNvPr id="1006" name="Check Box 62" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -930,7 +918,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -943,20 +931,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>47160</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>104760</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1007" name="Check Box 63" descr="" hidden="0"/>
+            <xdr:cNvPr id="1007" name="Check Box 63" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -974,7 +962,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -987,20 +975,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>133200</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>190440</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1008" name="Check Box 64" descr="" hidden="0"/>
+            <xdr:cNvPr id="1008" name="Check Box 64" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1018,7 +1006,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1031,20 +1019,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>28440</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>85680</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1009" name="Check Box 65" descr="" hidden="0"/>
+            <xdr:cNvPr id="1009" name="Check Box 65" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1062,7 +1050,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1075,20 +1063,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>114120</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>171720</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1010" name="Check Box 66" descr="" hidden="0"/>
+            <xdr:cNvPr id="1010" name="Check Box 66" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1106,7 +1094,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1119,20 +1107,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>9360</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>66600</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1011" name="Check Box 67" descr="" hidden="0"/>
+            <xdr:cNvPr id="1011" name="Check Box 67" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1150,7 +1138,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1163,20 +1151,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>95040</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>152280</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1012" name="Check Box 68" descr="" hidden="0"/>
+            <xdr:cNvPr id="1012" name="Check Box 68" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1194,7 +1182,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1207,20 +1195,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>180720</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>47520</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1013" name="Check Box 69" descr="" hidden="0"/>
+            <xdr:cNvPr id="1013" name="Check Box 69" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1238,7 +1226,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1251,20 +1239,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>75960</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>133560</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1014" name="Check Box 70" descr="" hidden="0"/>
+            <xdr:cNvPr id="1014" name="Check Box 70" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1282,7 +1270,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1295,20 +1283,20 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>341640</xdr:colOff>
-          <xdr:row>32</xdr:row>
-          <xdr:rowOff>162000</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>485640</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>85680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>-320040</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>28440</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>-1876320</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>57240</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1015" name="Check Box 71" descr="" hidden="0"/>
+            <xdr:cNvPr id="1015" name="Check Box 71" descr=" " hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1326,7 +1314,7 @@
             </a:bodyPr>
             <a:p>
               <a:r>
-                <a:t/>
+                <a:t> </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -1518,882 +1506,882 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D20" s="17" t="n">
         <v>0.92</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2420,20 +2408,20 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1001" r:id="rId3" name="">
+            <control shapeId="1001" r:id="rId3" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 1">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>104760</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>162000</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2442,20 +2430,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1002" r:id="rId4" name="">
+            <control shapeId="1002" r:id="rId4" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 58">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>56880</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2464,20 +2452,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1003" r:id="rId5" name="">
+            <control shapeId="1003" r:id="rId5" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 59">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>85320</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>142920</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2486,20 +2474,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1004" r:id="rId6" name="">
+            <control shapeId="1004" r:id="rId6" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 60">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>171360</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>38160</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2508,20 +2496,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1005" r:id="rId7" name="">
+            <control shapeId="1005" r:id="rId7" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 61">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>66600</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123840</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2530,20 +2518,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1006" r:id="rId8" name="">
+            <control shapeId="1006" r:id="rId8" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 62">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>152280</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>18720</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2552,20 +2540,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1007" r:id="rId9" name="">
+            <control shapeId="1007" r:id="rId9" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 63">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>21</xdr:row>
-                    <xdr:rowOff>47160</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>104760</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2574,20 +2562,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1008" r:id="rId10" name="">
+            <control shapeId="1008" r:id="rId10" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 64">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>22</xdr:row>
-                    <xdr:rowOff>133200</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>23</xdr:row>
-                    <xdr:rowOff>190440</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2596,20 +2584,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1009" r:id="rId11" name="">
+            <control shapeId="1009" r:id="rId11" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 65">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>24</xdr:row>
-                    <xdr:rowOff>28440</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>85680</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2618,20 +2606,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1010" r:id="rId12" name="">
+            <control shapeId="1010" r:id="rId12" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 66">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>25</xdr:row>
-                    <xdr:rowOff>114120</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>171720</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2640,20 +2628,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1011" r:id="rId13" name="">
+            <control shapeId="1011" r:id="rId13" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 67">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>9360</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>66600</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2662,20 +2650,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1012" r:id="rId14" name="">
+            <control shapeId="1012" r:id="rId14" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 68">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>28</xdr:row>
-                    <xdr:rowOff>95040</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>152280</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2684,20 +2672,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1013" r:id="rId15" name="">
+            <control shapeId="1013" r:id="rId15" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 69">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>29</xdr:row>
-                    <xdr:rowOff>180720</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>47520</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2706,20 +2694,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1014" r:id="rId16" name="">
+            <control shapeId="1014" r:id="rId16" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 70">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>75960</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>133560</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2728,20 +2716,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1015" r:id="rId17" name="">
+            <control shapeId="1015" r:id="rId17" name=" ">
               <controlPr defaultSize="0" locked="1" autoFill="0" autoLine="0" autoPict="0" print="true" altText="Check Box 71">
                 <anchor moveWithCells="true" sizeWithCells="false">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>341640</xdr:colOff>
-                    <xdr:row>32</xdr:row>
-                    <xdr:rowOff>162000</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>485640</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>85680</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>-320040</xdr:colOff>
-                    <xdr:row>34</xdr:row>
-                    <xdr:rowOff>28440</xdr:rowOff>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>-1876320</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>57240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2755,226 +2743,181 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{7656F982-B788-403D-8C24-7611D2CD24A5}">
+          <x14:cfRule type="expression" priority="2" id="{78D4E7F7-B0BE-4F49-AF3F-F8CEC149A229}">
             <xm:f>Sheet2!$A$11=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A11:G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{EDD82286-E0A0-4E50-B83F-228CED2438C0}">
+          <x14:cfRule type="expression" priority="3" id="{66512764-3A56-4CCE-8990-50A4A0A956EC}">
             <xm:f>Sheet2!$A$12=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A12:G12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{556C44AE-FF76-4150-9F6A-C0835AC050C7}">
+          <x14:cfRule type="expression" priority="4" id="{8EFEF48D-DFD6-4CA7-A850-E02F60EE6069}">
             <xm:f>Sheet2!$A$13=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A13:G13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{72FD6352-CBB4-4D7E-9289-2CAA286231A0}">
+          <x14:cfRule type="expression" priority="5" id="{5FDA144A-4169-42C5-A878-E32BEE76703D}">
             <xm:f>Sheet2!$A$14=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A14:G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{1F4380D2-C6FA-468A-AF54-228217B77FBB}">
+          <x14:cfRule type="expression" priority="6" id="{D42B2E30-2BD7-4783-80B1-AB1C1716E54E}">
             <xm:f>Sheet2!$A$15=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A15:G15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{822A7E7C-114A-4728-84C9-C0B8A8F63063}">
+          <x14:cfRule type="expression" priority="7" id="{F12D8595-471D-4917-939F-4B43FD9540D6}">
             <xm:f>Sheet2!$A$16=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A16:G16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{229820F9-F0DA-425C-8CAA-9B6091EC22DE}">
+          <x14:cfRule type="expression" priority="8" id="{A6D1E349-20AF-499A-92E0-D19838B03263}">
             <xm:f>Sheet2!$A$17=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A17:G17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{8941E792-CE7D-402E-9A26-C1AE8B601D64}">
+          <x14:cfRule type="expression" priority="9" id="{E4463487-F4C3-4118-8E96-C8C09AB025E4}">
             <xm:f>Sheet2!$A$18=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A18:G18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{C733C780-8EED-4D71-8EF8-7040B6F5201E}">
+          <x14:cfRule type="expression" priority="10" id="{A4528FC5-8088-491E-A8E1-A8F6452533F0}">
             <xm:f>Sheet2!$A$19=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A19:G19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{6160E89A-AF40-4025-B4BA-25CBE4197842}">
+          <x14:cfRule type="expression" priority="11" id="{00F85DA8-5619-4CC8-ABF5-7148515085D3}">
             <xm:f>Sheet2!$A$20=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A20:G20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="12" id="{396573F8-88D0-4B31-951A-B162FF30A4CE}">
+          <x14:cfRule type="expression" priority="12" id="{D5A746D3-6CCB-4BA2-A0C0-3FA46A14CE34}">
             <xm:f>Sheet2!$A$21=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A21:G21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{A4FF2C79-8EB4-41AC-AB4C-AFA6F77CA2D7}">
+          <x14:cfRule type="expression" priority="13" id="{C9E4291B-EB2B-4F48-A94A-FB87B3432C45}">
             <xm:f>Sheet2!$A$22=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A22:G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="14" id="{AB8840CA-D1E0-49D1-8A47-B25ADDD0BFA8}">
+          <x14:cfRule type="expression" priority="14" id="{94D28D88-194A-4E2C-9FF5-3056169DBB71}">
             <xm:f>Sheet2!$A$23=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A23:G23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{3AF514FF-B027-49E8-9252-71C448983826}">
+          <x14:cfRule type="expression" priority="15" id="{634058D0-85A0-4B69-85A0-A8A934F16984}">
             <xm:f>Sheet2!$A$24=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A24:G24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="16" id="{B6405CAC-7583-43CA-944A-8D5EF6A3DC7B}">
+          <x14:cfRule type="expression" priority="16" id="{A400209C-EC7C-4018-8752-6EA01D484527}">
             <xm:f>Sheet2!$A$25=TRUE()</xm:f>
             <x14:dxf>
               <font>
                 <strike val="1"/>
-                <color rgb="00FFFFFF"/>
+                <color rgb="FFFFFFFF"/>
               </font>
-              <fill>
-                <patternFill/>
-              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A25:G25</xm:sqref>
@@ -2999,77 +2942,92 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="b">
+      <c r="A11" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="b">
+      <c r="A12" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="b">
+      <c r="A13" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="b">
+      <c r="A14" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="b">
+      <c r="A15" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="b">
+      <c r="A16" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="b">
+      <c r="A17" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="b">
+      <c r="A18" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="b">
+      <c r="A19" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="b">
+      <c r="A20" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="b">
+      <c r="A21" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="b">
+      <c r="A22" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="b">
+      <c r="A23" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15" t="b">
+      <c r="A24" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15" t="b">
+      <c r="A25" s="18" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
